--- a/2021_employee.xlsx
+++ b/2021_employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Desktop/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Desktop/project-private/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B0E28-2D3E-C641-B9B9-AF20A5A067F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC4DB8-13F3-154B-A428-4AE32099D7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2260" windowWidth="29400" windowHeight="18380" xr2:uid="{F3707011-6E74-E64C-8466-CC5DE2918135}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -539,7 +539,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>6700</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -556,7 +556,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4100</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -573,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>4200</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>5000</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -607,7 +607,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>4100</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>7500</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>4400</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -658,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>6800</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>9700</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>6400</v>
+        <v>8100</v>
       </c>
     </row>
   </sheetData>
